--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Lhcgr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Lhcgr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H2">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,25 +558,25 @@
         <v>0.2640186666666667</v>
       </c>
       <c r="N2">
-        <v>0.792056</v>
+        <v>0.7920560000000001</v>
       </c>
       <c r="O2">
-        <v>0.7009959279618303</v>
+        <v>0.4210262213814106</v>
       </c>
       <c r="P2">
-        <v>0.7009959279618302</v>
+        <v>0.4210262213814106</v>
       </c>
       <c r="Q2">
-        <v>42.876445861544</v>
+        <v>53.18385227252978</v>
       </c>
       <c r="R2">
-        <v>385.888012753896</v>
+        <v>478.6546704527681</v>
       </c>
       <c r="S2">
-        <v>0.2741154626340887</v>
+        <v>0.2035030339182531</v>
       </c>
       <c r="T2">
-        <v>0.2741154626340887</v>
+        <v>0.2035030339182531</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H3">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.112615</v>
+        <v>0.363065</v>
       </c>
       <c r="N3">
-        <v>0.337845</v>
+        <v>1.089195</v>
       </c>
       <c r="O3">
-        <v>0.2990040720381697</v>
+        <v>0.5789737786185895</v>
       </c>
       <c r="P3">
-        <v>0.2990040720381697</v>
+        <v>0.5789737786185893</v>
       </c>
       <c r="Q3">
-        <v>18.288596831655</v>
+        <v>73.13572017127333</v>
       </c>
       <c r="R3">
-        <v>164.597371484895</v>
+        <v>658.22148154146</v>
       </c>
       <c r="S3">
-        <v>0.1169217056289122</v>
+        <v>0.2798469893903862</v>
       </c>
       <c r="T3">
-        <v>0.1169217056289122</v>
+        <v>0.2798469893903861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>196.252094</v>
       </c>
       <c r="I4">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J4">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,13 +682,13 @@
         <v>0.2640186666666667</v>
       </c>
       <c r="N4">
-        <v>0.792056</v>
+        <v>0.7920560000000001</v>
       </c>
       <c r="O4">
-        <v>0.7009959279618303</v>
+        <v>0.4210262213814106</v>
       </c>
       <c r="P4">
-        <v>0.7009959279618302</v>
+        <v>0.4210262213814106</v>
       </c>
       <c r="Q4">
         <v>17.27140539614045</v>
@@ -697,10 +697,10 @@
         <v>155.442648565264</v>
       </c>
       <c r="S4">
-        <v>0.1104186502722744</v>
+        <v>0.06608741653643063</v>
       </c>
       <c r="T4">
-        <v>0.1104186502722744</v>
+        <v>0.06608741653643065</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>196.252094</v>
       </c>
       <c r="I5">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J5">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.112615</v>
+        <v>0.363065</v>
       </c>
       <c r="N5">
-        <v>0.337845</v>
+        <v>1.089195</v>
       </c>
       <c r="O5">
-        <v>0.2990040720381697</v>
+        <v>0.5789737786185895</v>
       </c>
       <c r="P5">
-        <v>0.2990040720381697</v>
+        <v>0.5789737786185893</v>
       </c>
       <c r="Q5">
-        <v>7.366976521936667</v>
+        <v>23.75075550270333</v>
       </c>
       <c r="R5">
-        <v>66.30278869743</v>
+        <v>213.75679952433</v>
       </c>
       <c r="S5">
-        <v>0.0470981709642204</v>
+        <v>0.09088004339894851</v>
       </c>
       <c r="T5">
-        <v>0.0470981709642204</v>
+        <v>0.09088004339894851</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H6">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I6">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J6">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,25 +806,25 @@
         <v>0.2640186666666667</v>
       </c>
       <c r="N6">
-        <v>0.792056</v>
+        <v>0.7920560000000001</v>
       </c>
       <c r="O6">
-        <v>0.7009959279618303</v>
+        <v>0.4210262213814106</v>
       </c>
       <c r="P6">
-        <v>0.7009959279618302</v>
+        <v>0.4210262213814106</v>
       </c>
       <c r="Q6">
-        <v>16.15276420189067</v>
+        <v>15.95592622903822</v>
       </c>
       <c r="R6">
-        <v>145.374877817016</v>
+        <v>143.603336061344</v>
       </c>
       <c r="S6">
-        <v>0.1032670115969627</v>
+        <v>0.06105385860253437</v>
       </c>
       <c r="T6">
-        <v>0.1032670115969627</v>
+        <v>0.06105385860253439</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H7">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I7">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J7">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.112615</v>
+        <v>0.363065</v>
       </c>
       <c r="N7">
-        <v>0.337845</v>
+        <v>1.089195</v>
       </c>
       <c r="O7">
-        <v>0.2990040720381697</v>
+        <v>0.5789737786185895</v>
       </c>
       <c r="P7">
-        <v>0.2990040720381697</v>
+        <v>0.5789737786185893</v>
       </c>
       <c r="Q7">
-        <v>6.889829282005</v>
+        <v>21.94177566868667</v>
       </c>
       <c r="R7">
-        <v>62.008463538045</v>
+        <v>197.47598101818</v>
       </c>
       <c r="S7">
-        <v>0.04404769805793511</v>
+        <v>0.08395815134357598</v>
       </c>
       <c r="T7">
-        <v>0.04404769805793512</v>
+        <v>0.08395815134357598</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H8">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I8">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J8">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,25 +930,25 @@
         <v>0.2640186666666667</v>
       </c>
       <c r="N8">
-        <v>0.792056</v>
+        <v>0.7920560000000001</v>
       </c>
       <c r="O8">
-        <v>0.7009959279618303</v>
+        <v>0.4210262213814106</v>
       </c>
       <c r="P8">
-        <v>0.7009959279618302</v>
+        <v>0.4210262213814106</v>
       </c>
       <c r="Q8">
-        <v>33.34739076960889</v>
+        <v>23.62057302344445</v>
       </c>
       <c r="R8">
-        <v>300.12651692648</v>
+        <v>212.5851572110001</v>
       </c>
       <c r="S8">
-        <v>0.2131948034585045</v>
+        <v>0.09038191232419245</v>
       </c>
       <c r="T8">
-        <v>0.2131948034585045</v>
+        <v>0.09038191232419246</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H9">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I9">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J9">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.112615</v>
+        <v>0.363065</v>
       </c>
       <c r="N9">
-        <v>0.337845</v>
+        <v>1.089195</v>
       </c>
       <c r="O9">
-        <v>0.2990040720381697</v>
+        <v>0.5789737786185895</v>
       </c>
       <c r="P9">
-        <v>0.2990040720381697</v>
+        <v>0.5789737786185893</v>
       </c>
       <c r="Q9">
-        <v>14.22405642348333</v>
+        <v>32.48180688520834</v>
       </c>
       <c r="R9">
-        <v>128.01650781135</v>
+        <v>292.336261966875</v>
       </c>
       <c r="S9">
-        <v>0.09093649738710198</v>
+        <v>0.1242885944856788</v>
       </c>
       <c r="T9">
-        <v>0.09093649738710199</v>
+        <v>0.1242885944856788</v>
       </c>
     </row>
   </sheetData>
